--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1,302 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22260"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="13620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>value_type</t>
-  </si>
-  <si>
-    <t>read_schema_from_file</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>记录类名</t>
-  </si>
-  <si>
-    <t>从excel读取定义</t>
-  </si>
-  <si>
-    <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-  </si>
-  <si>
-    <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-  <si>
-    <t>TbGlobalConfig</t>
-  </si>
-  <si>
-    <t>GlobalConfig</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>GlobalConfig.xlsx</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>c;s</t>
-  </si>
-  <si>
-    <t>全局配置表</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -596,162 +471,162 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="22">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -805,11 +680,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1069,172 +1007,332 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="29.1071428571429" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.3303571428571" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.6696428571429" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.2232142857143" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.88392857142857" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.1071428571429" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.10714285714286" style="2" customWidth="1"/>
-    <col min="11" max="11" width="7.55357142857143" style="2" customWidth="1"/>
+    <col width="29.1071428571429" customWidth="1" style="2" min="2" max="2"/>
+    <col width="18" customWidth="1" style="2" min="3" max="3"/>
+    <col width="26" customWidth="1" style="2" min="4" max="4"/>
+    <col width="24.3303571428571" customWidth="1" style="2" min="5" max="5"/>
+    <col width="12.6696428571429" customWidth="1" style="2" min="6" max="6"/>
+    <col width="11.2232142857143" customWidth="1" style="2" min="7" max="7"/>
+    <col width="9.883928571428569" customWidth="1" style="2" min="8" max="8"/>
+    <col width="10.1071428571429" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9.107142857142859" customWidth="1" style="2" min="10" max="10"/>
+    <col width="7.55357142857143" customWidth="1" style="2" min="11" max="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>read_schema_from_file</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>全名(包含模块和名字)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>记录类名</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>从excel读取定义</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>文件列表</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>表id字段</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>分组</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>注释</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>输出文件名</t>
+        </is>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
+    <row r="3" customFormat="1" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>TbBed</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>Bed</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Bed.xlsx</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>床位表</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TbGlobalConfig</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GlobalConfig</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GlobalConfig.xlsx</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TbBed</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bed</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Bed.xlsx</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TbVip</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Vip</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vip.xlsx</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>level</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TbRelationship</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Relationship</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Relationship.xlsx</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30240" windowHeight="13620" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -1194,138 +1194,710 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>TbGlobalConfig</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>GlobalConfig</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>GlobalConfig.xlsx</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="0" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="0" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>TbBed</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Bed</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>Bed.xlsx</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="0" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H5" s="0" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>TbVip</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>Vip</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>Vip.xlsx</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>level</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="0" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>TbRelationship</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>Relationship</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>Relationship.xlsx</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>list</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>TbActivity</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Activity.xlsx</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>活动总表</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>TbActivityStage</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>ActivityStage</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>ActivityStage.xlsx</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>活动阶段表</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>TbFarmingConfig</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>FarmingConfig</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>FarmingConfig.xlsx</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>种田全局配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>TbCompetitionConfig</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>CompetitionConfig</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>CompetitionConfig.xlsx</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>竞赛全局配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>TbItem</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Item.xlsx</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>道具表</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>TbDrop</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>Drop</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>Drop.xlsx</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>TbDropGroup</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>DropGroup</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>DropGroup.xlsx</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>TbDropItem</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>DropItem</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>DropItem.xlsx</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>TbStore</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>Store</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>Store.xlsx</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>TbStoreItem</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>StoreItem</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>StoreItem.xlsx</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>TbBackpack</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>Backpack</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>Backpack.xlsx</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>TbBroadcast</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>Broadcast</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>Broadcast.xlsx</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>TbItemDecor</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>ItemDecor</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>ItemDecor.xlsx</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>item_id</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TbGiftConfig</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>GiftConfig</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GiftConfig.xlsx</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TbInitialReward</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>InitialReward</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>InitialReward.xlsx</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>

--- a/datas/__tables__.xlsx
+++ b/datas/__tables__.xlsx
@@ -1012,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
@@ -1830,76 +1830,160 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>TbGiftConfig</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>GiftConfig</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>GiftConfig.xlsx</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="0" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="0" t="inlineStr">
         <is>
           <t>c;s</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>TbInitialReward</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>InitialReward</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>InitialReward.xlsx</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="0" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="0" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c;s</t>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>TbRole</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>Role</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>Role.xlsx</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>角色/皮肤表</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>TbScene</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>Scene</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>Scene.xlsx</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>map</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>c;s</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>场景表</t>
         </is>
       </c>
     </row>
